--- a/data/Miedema-model/Miedema-model-reduced.xlsx
+++ b/data/Miedema-model/Miedema-model-reduced.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richard/Projects/Machine Learning/Novamag_Database_Files/Miedema-model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richard/Projects/Machine-Learning/ML-alloy-design/data/Miedema-model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFA9BDB-FCE7-0B43-9BAF-26B1D09B07DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239C33F5-411E-5A4E-B6AD-0DC60429A47D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="85">
   <si>
     <t>Fe</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>Al</t>
   </si>
 </sst>
 </file>
@@ -662,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CT89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BH11" sqref="BH11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -962,7 +965,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>3</v>
@@ -3086,7 +3089,7 @@
         <v>-33</v>
       </c>
       <c r="BV11" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="BW11" s="2">
         <v>13</v>
